--- a/biology/Zoologie/Chrysopilus/Chrysopilus.xlsx
+++ b/biology/Zoologie/Chrysopilus/Chrysopilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrysopilus est un genre d'insectes diptères brachycères prédateurs, ressemblant quelque peu à des mouches. Il comporte plus de 300 espèces sans compter les espèces éteintes. On le trouve parfois fossilisé, emprisonné dans de l'ambre.
 Une espèce répandue en Europe est Chrysopilus cristatus (Fabricius, 1775).
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C. aequalis (Walker, 1848)
